--- a/BackTest/2019-10-30 BackTest LTC.xlsx
+++ b/BackTest/2019-10-30 BackTest LTC.xlsx
@@ -18686,20 +18686,14 @@
         <v>68572.5</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>68050</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18727,20 +18721,14 @@
         <v>68525</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>68050</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18768,20 +18756,14 @@
         <v>68492.5</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>68250</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18809,20 +18791,14 @@
         <v>68457.5</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -18850,20 +18826,14 @@
         <v>68422.5</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -18891,20 +18861,14 @@
         <v>68387.5</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -18932,20 +18896,14 @@
         <v>68340</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>67900</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -18973,20 +18931,14 @@
         <v>68292.5</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>67900</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19014,20 +18966,14 @@
         <v>68245</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>67900</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19055,20 +19001,14 @@
         <v>68197.5</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>67950</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19102,14 +19042,12 @@
         <v>0</v>
       </c>
       <c r="J533" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>67950</v>
+      </c>
+      <c r="K533" t="n">
+        <v>67950</v>
+      </c>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19143,12 +19081,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="n">
-        <v>68050</v>
-      </c>
-      <c r="K534" t="inlineStr"/>
+        <v>68200</v>
+      </c>
+      <c r="K534" t="n">
+        <v>67950</v>
+      </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M534" t="n">
@@ -19184,12 +19124,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="n">
-        <v>68400</v>
-      </c>
-      <c r="K535" t="inlineStr"/>
+        <v>68350</v>
+      </c>
+      <c r="K535" t="n">
+        <v>67950</v>
+      </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M535" t="n">
@@ -19225,14 +19167,12 @@
         <v>0</v>
       </c>
       <c r="J536" t="n">
-        <v>68500</v>
-      </c>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>68400</v>
+      </c>
+      <c r="K536" t="n">
+        <v>68400</v>
+      </c>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19260,18 +19200,18 @@
         <v>68110</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>68800</v>
-      </c>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>68400</v>
+      </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M537" t="n">
@@ -19301,18 +19241,18 @@
         <v>68117.5</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>68700</v>
-      </c>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>68400</v>
+      </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M538" t="n">
@@ -19349,11 +19289,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19388,11 +19324,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19427,11 +19359,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19466,11 +19394,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19505,11 +19429,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19544,11 +19464,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19583,11 +19499,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19622,11 +19534,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19661,11 +19569,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19700,11 +19604,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19739,11 +19639,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19778,11 +19674,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19817,11 +19709,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19856,11 +19744,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19895,11 +19779,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -19934,11 +19814,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19973,11 +19849,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20012,11 +19884,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20047,15 +19915,11 @@
         <v>0</v>
       </c>
       <c r="I557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20090,11 +19954,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20125,15 +19985,11 @@
         <v>0</v>
       </c>
       <c r="I559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20168,12 +20024,10 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+      <c r="M560" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -20201,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
@@ -20236,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
@@ -20306,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
@@ -20341,7 +20195,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
@@ -20376,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
@@ -20411,7 +20265,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
@@ -20446,7 +20300,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
@@ -20481,7 +20335,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
@@ -20516,7 +20370,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
@@ -20551,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest LTC.xlsx
+++ b/BackTest/2019-10-30 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>1074.98399707</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1074.98399707</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1142.73539707</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1089.51059707</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1134.10859707</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1149.60279707</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1146.25279707</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1154.05349707</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1096.45970223</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1087.16860216</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1145.09530216</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1223.41836031</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1360.94716031</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1360.94716031</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1360.94716031</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1360.94716031</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1360.94716031</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1360.94716031</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1446.10106031</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1275.77686031</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1347.03526031</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1347.03526031</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1457.647960309999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1585.80796031</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1670.746560309999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1670.746560309999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1521.525660309999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1502.143660309999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1435.159060309999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1296.191660309999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1287.419360309999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1287.419360309999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1325.343160309999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1367.594560309999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1475.076360309999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1626.11686031</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1626.11686031</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1596.03356031</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1501.16816031</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1501.16816031</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1501.16816031</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1497.43946031</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1497.43946031</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1486.32036031</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1430.80046031</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1467.48286031</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1467.48286031</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1275.39466031</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1252.94436031</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1252.94436031</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1252.94436031</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1352.34786031</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1298.00876031</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1336.76076031</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1430.24236031</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1558.974867509999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1558.874867509999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1595.854667509999</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1558.81166751</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1673.84606751</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1674.38606751</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1590.81786751</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1676.151567509999</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1671.42596751</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1732.56776751</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1641.965167509999</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1641.965167509999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>1636.322267509999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1592.731667509999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1605.158467509999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1639.908767509999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1620.284667509999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1580.979167509999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1665.782467509999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1658.468367509999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1621.076967509999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1621.076967509999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1502.623667509999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1502.623667509999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1502.623667509999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1498.26566751</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1502.33526751</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1499.33526751</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1499.87746751</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1512.64066751</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1512.64066751</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1458.04156751</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>1538.28966751</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>1481.94046751</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>1476.87466751</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>1476.87466751</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>1482.64706751</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>1482.64706751</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>1473.43626751</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>1473.49626751</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>1446.54806751</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1446.54806751</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1413.613567509999</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>1413.613567509999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1509.83956751</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>620.8328721299995</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>621.3898721299995</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -19525,251 +19525,249 @@
         <v>-5988.915327869996</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C581" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D581" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E581" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.2006</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-5988.714727869996</v>
+      </c>
+      <c r="H581" t="n">
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J581" t="n">
+        <v>67800</v>
+      </c>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C582" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D582" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E582" t="n">
         <v>68000</v>
       </c>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
+      <c r="F582" t="n">
+        <v>165.1701</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-5823.544627869996</v>
+      </c>
+      <c r="H582" t="n">
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>67900</v>
+      </c>
+      <c r="J582" t="n">
+        <v>67800</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C583" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D583" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E583" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F583" t="n">
+        <v>2.5476</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-5823.544627869996</v>
+      </c>
+      <c r="H583" t="n">
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>68200</v>
+      </c>
+      <c r="J583" t="n">
+        <v>67800</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C584" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D584" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E584" t="n">
+        <v>68250</v>
+      </c>
+      <c r="F584" t="n">
+        <v>6.9297</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-5816.614927869996</v>
+      </c>
+      <c r="H584" t="n">
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>68200</v>
+      </c>
+      <c r="J584" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-5816.764927869996</v>
+      </c>
+      <c r="H585" t="n">
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>68300</v>
+      </c>
+      <c r="J585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C586" t="n">
+        <v>68050</v>
+      </c>
+      <c r="D586" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E586" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F586" t="n">
+        <v>120.0513</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-5936.816227869996</v>
+      </c>
+      <c r="H586" t="n">
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>68200</v>
+      </c>
+      <c r="J586" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K586" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C581" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D581" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E581" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F581" t="n">
-        <v>0.2006</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-5988.714727869996</v>
-      </c>
-      <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>67800</v>
-      </c>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>68050</v>
-      </c>
-      <c r="C582" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D582" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E582" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F582" t="n">
-        <v>165.1701</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-5823.544627869996</v>
-      </c>
-      <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>67900</v>
-      </c>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>68050</v>
-      </c>
-      <c r="C583" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D583" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E583" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F583" t="n">
-        <v>2.5476</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-5823.544627869996</v>
-      </c>
-      <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>68200</v>
-      </c>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>68250</v>
-      </c>
-      <c r="C584" t="n">
-        <v>68300</v>
-      </c>
-      <c r="D584" t="n">
-        <v>68300</v>
-      </c>
-      <c r="E584" t="n">
-        <v>68250</v>
-      </c>
-      <c r="F584" t="n">
-        <v>6.9297</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-5816.614927869996</v>
-      </c>
-      <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>68200</v>
-      </c>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C585" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D585" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E585" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F585" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-5816.764927869996</v>
-      </c>
-      <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>68300</v>
-      </c>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C586" t="n">
-        <v>68050</v>
-      </c>
-      <c r="D586" t="n">
-        <v>68350</v>
-      </c>
-      <c r="E586" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F586" t="n">
-        <v>120.0513</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-5936.816227869996</v>
-      </c>
-      <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>68200</v>
-      </c>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19803,7 +19801,9 @@
       <c r="I587" t="n">
         <v>68050</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>68200</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19837,12 +19837,12 @@
         <v>-5941.759927869995</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="n">
         <v>68200</v>
       </c>
-      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19881,7 +19881,9 @@
       <c r="I589" t="n">
         <v>67900</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>68200</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19920,7 +19922,9 @@
       <c r="I590" t="n">
         <v>68000</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>68200</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19959,7 +19963,9 @@
       <c r="I591" t="n">
         <v>67800</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>68200</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19993,12 +19999,12 @@
         <v>-5960.240127869995</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>67950</v>
-      </c>
-      <c r="J592" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>68200</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20032,12 +20038,12 @@
         <v>-5938.108527869996</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="n">
         <v>68200</v>
       </c>
-      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20071,12 +20077,12 @@
         <v>-5936.968527869995</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>68350</v>
-      </c>
-      <c r="J594" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>68200</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20110,12 +20116,12 @@
         <v>-5650.643427869995</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>68400</v>
-      </c>
-      <c r="J595" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>68200</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20149,12 +20155,12 @@
         <v>-5653.886527869995</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>68800</v>
-      </c>
-      <c r="J596" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>68200</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20191,7 +20197,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>68200</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20228,7 +20236,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>68200</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20265,7 +20275,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>68200</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20302,7 +20314,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>68200</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20339,7 +20353,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>68200</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20376,7 +20392,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>68200</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20413,7 +20431,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>68200</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20450,7 +20470,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>68200</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20487,7 +20509,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>68200</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20524,7 +20548,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>68200</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20561,7 +20587,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>68200</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20598,7 +20626,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>68200</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20635,7 +20665,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>68200</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20672,7 +20704,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>68200</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20709,7 +20743,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>68200</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20746,7 +20782,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>68200</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20783,7 +20821,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>68200</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20820,7 +20860,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>68200</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20857,7 +20899,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>68200</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20894,7 +20938,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>68200</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20931,7 +20977,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>68200</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20968,7 +21016,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>68200</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21005,7 +21055,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>68200</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21042,7 +21094,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>68200</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21079,7 +21133,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>68200</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21116,7 +21172,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>68200</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21153,7 +21211,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>68200</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21190,7 +21250,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>68200</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21227,7 +21289,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>68200</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21264,7 +21328,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>68200</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21301,7 +21367,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>68200</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21338,7 +21406,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>68200</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21375,7 +21445,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>68200</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21412,7 +21484,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>68200</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21449,7 +21523,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>68200</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21486,7 +21562,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>68200</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21523,7 +21601,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>68200</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21560,7 +21640,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>68200</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21597,7 +21679,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>68200</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21634,7 +21718,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>68200</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21671,7 +21757,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>68200</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21708,7 +21796,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>68200</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21745,7 +21835,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>68200</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21782,7 +21874,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>68200</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21819,7 +21913,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>68200</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21856,7 +21952,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>68200</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21893,7 +21991,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>68200</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21930,7 +22030,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>68200</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21967,7 +22069,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>68200</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22004,7 +22108,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>68200</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22041,7 +22147,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>68200</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22078,7 +22186,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>68200</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22115,7 +22225,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>68200</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22152,7 +22264,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>68200</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22189,7 +22303,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>68200</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22226,7 +22342,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>68200</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22263,7 +22381,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>68200</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22300,7 +22420,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>68200</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22337,7 +22459,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>68200</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22374,7 +22498,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>68200</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22411,7 +22537,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>68200</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22448,7 +22576,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>68200</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22485,7 +22615,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>68200</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22522,7 +22654,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>68200</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22559,7 +22693,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>68200</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22596,7 +22732,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>68200</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22633,7 +22771,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>68200</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22670,7 +22810,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>68200</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22707,7 +22849,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>68200</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22744,7 +22888,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>68200</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22781,7 +22927,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>68200</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22818,7 +22966,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>68200</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22855,7 +23005,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>68200</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22892,7 +23044,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>68200</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22929,7 +23083,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>68200</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22966,7 +23122,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>68200</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23003,7 +23161,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>68200</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23040,7 +23200,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>68200</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23077,7 +23239,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>68200</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23114,7 +23278,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>68200</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23151,7 +23317,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>68200</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23188,7 +23356,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>68200</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23225,7 +23395,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>68200</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23262,7 +23434,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>68200</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23299,7 +23473,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>68200</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23336,7 +23512,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>68200</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23373,7 +23551,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>68200</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23410,7 +23590,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>68200</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23447,7 +23629,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>68200</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23484,7 +23668,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>68200</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23521,7 +23707,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>68200</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23558,7 +23746,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>68200</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23595,7 +23785,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>68200</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23632,7 +23824,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>68200</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23669,7 +23863,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>68200</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23706,7 +23902,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>68200</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23743,7 +23941,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>68200</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23780,7 +23980,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>68200</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23817,7 +24019,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>68200</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23854,7 +24058,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>68200</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23891,7 +24097,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>68200</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23928,7 +24136,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>68200</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23965,7 +24175,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>68200</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24002,7 +24214,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>68200</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24039,7 +24253,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>68200</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24076,7 +24292,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>68200</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24113,7 +24331,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>68200</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24150,7 +24370,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>68200</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24187,7 +24409,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>68200</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24224,7 +24448,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>68200</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24261,7 +24487,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>68200</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24298,7 +24526,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>68200</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24335,7 +24565,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>68200</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24372,7 +24604,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>68200</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24409,7 +24643,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>68200</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24446,7 +24682,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>68200</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24483,7 +24721,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>68200</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24520,7 +24760,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>68200</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24557,7 +24799,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>68200</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24594,7 +24838,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>68200</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24631,7 +24877,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>68200</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24668,7 +24916,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>68200</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24705,7 +24955,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>68200</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24742,7 +24994,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>68200</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24779,7 +25033,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>68200</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24816,7 +25072,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>68200</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24853,7 +25111,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>68200</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24890,7 +25150,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>68200</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24927,7 +25189,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>68200</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24964,7 +25228,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>68200</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25001,7 +25267,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>68200</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25038,7 +25306,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>68200</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25075,7 +25345,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>68200</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25112,7 +25384,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>68200</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25149,7 +25423,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>68200</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25186,7 +25462,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>68200</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25223,7 +25501,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>68200</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25260,7 +25540,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>68200</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25297,7 +25579,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>68200</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25334,7 +25618,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>68200</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25371,7 +25657,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>68200</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25408,7 +25696,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>68200</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25445,7 +25735,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>68200</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25482,7 +25774,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>68200</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25519,7 +25813,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>68200</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25556,7 +25852,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>68200</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25593,7 +25891,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>68200</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25630,7 +25930,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>68200</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25667,7 +25969,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>68200</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25704,7 +26008,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>68200</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25741,7 +26047,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>68200</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25778,7 +26086,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>68200</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25815,7 +26125,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>68200</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25852,7 +26164,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>68200</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25889,7 +26203,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>68200</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25926,7 +26242,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>68200</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25963,7 +26281,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>68200</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26000,7 +26320,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>68200</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26037,7 +26359,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>68200</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26074,7 +26398,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>68200</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26111,7 +26437,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>68200</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26148,7 +26476,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>68200</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26185,7 +26515,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>68200</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26222,7 +26554,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>68200</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26259,7 +26593,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>68200</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26296,7 +26632,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>68200</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26333,7 +26671,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>68200</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26370,7 +26710,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>68200</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26407,7 +26749,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>68200</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26444,7 +26788,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>68200</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26481,7 +26827,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>68200</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26518,7 +26866,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>68200</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26555,7 +26905,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>68200</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26592,7 +26944,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>68200</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26629,7 +26983,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>68200</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26666,7 +27022,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>68200</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26703,7 +27061,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>68200</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26715,6 +27075,6 @@
       <c r="M773" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest LTC.xlsx
+++ b/BackTest/2019-10-30 BackTest LTC.xlsx
@@ -517,7 +517,7 @@
         <v>1074.98399707</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1074.98399707</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1142.73539707</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1089.51059707</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1134.10859707</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1149.60279707</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1146.25279707</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1154.05349707</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1096.45970223</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1087.16860216</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1145.09530216</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1524.98278213</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1542.44588213</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1442.432054619999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1465.55886031</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1410.97386031</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1429.21946031</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1406.72076031</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1670.746560309999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1521.525660309999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1502.143660309999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1435.159060309999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1596.03356031</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1501.16816031</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1603.474767509999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1599.578567509999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1687.286267509999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1665.169267509999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>1585.946867509999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1455.646367509999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1558.974867509999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1558.874867509999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1595.854667509999</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1558.81166751</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1673.84606751</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1674.38606751</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1590.81786751</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1676.151567509999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1671.42596751</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1732.56776751</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1643.65516751</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1641.965167509999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1641.965167509999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>1636.322267509999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1592.731667509999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1605.158467509999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1626.290867509999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1639.908767509999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1620.284667509999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1580.979167509999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1665.782467509999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1658.468367509999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1621.076967509999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -19492,11 +19492,17 @@
         <v>-5977.028827869996</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>67700</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +19531,17 @@
         <v>-5988.915327869996</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>68000</v>
+      </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19563,10 +19575,12 @@
       <c r="I581" t="n">
         <v>67800</v>
       </c>
-      <c r="J581" t="n">
-        <v>67800</v>
-      </c>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19600,12 +19614,10 @@
       <c r="I582" t="n">
         <v>67900</v>
       </c>
-      <c r="J582" t="n">
-        <v>67800</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L582" t="n">
@@ -19641,12 +19653,10 @@
       <c r="I583" t="n">
         <v>68200</v>
       </c>
-      <c r="J583" t="n">
-        <v>67800</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L583" t="n">
@@ -19682,10 +19692,12 @@
       <c r="I584" t="n">
         <v>68200</v>
       </c>
-      <c r="J584" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19719,12 +19731,10 @@
       <c r="I585" t="n">
         <v>68300</v>
       </c>
-      <c r="J585" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L585" t="n">
@@ -19760,12 +19770,10 @@
       <c r="I586" t="n">
         <v>68200</v>
       </c>
-      <c r="J586" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L586" t="n">
@@ -19801,9 +19809,7 @@
       <c r="I587" t="n">
         <v>68050</v>
       </c>
-      <c r="J587" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19837,12 +19843,12 @@
         <v>-5941.759927869995</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
         <v>68200</v>
       </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19881,9 +19887,7 @@
       <c r="I589" t="n">
         <v>67900</v>
       </c>
-      <c r="J589" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19922,9 +19926,7 @@
       <c r="I590" t="n">
         <v>68000</v>
       </c>
-      <c r="J590" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19963,9 +19965,7 @@
       <c r="I591" t="n">
         <v>67800</v>
       </c>
-      <c r="J591" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19999,12 +19999,12 @@
         <v>-5960.240127869995</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>68200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>67950</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20041,9 +20041,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20080,9 +20078,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20119,9 +20115,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20158,9 +20152,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20197,9 +20189,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20236,9 +20226,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20275,9 +20263,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20314,9 +20300,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20353,9 +20337,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20392,9 +20374,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20431,9 +20411,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20470,9 +20448,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20509,9 +20485,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20548,9 +20522,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20587,9 +20559,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20626,9 +20596,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20665,9 +20633,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20704,9 +20670,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20743,9 +20707,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20782,9 +20744,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20821,9 +20781,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20860,9 +20818,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20899,9 +20855,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20938,9 +20892,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20977,9 +20929,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21016,9 +20966,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21055,9 +21003,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21094,9 +21040,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21133,9 +21077,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21172,9 +21114,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21211,9 +21151,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21250,9 +21188,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21289,9 +21225,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21328,9 +21262,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21367,9 +21299,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21406,9 +21336,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21445,9 +21373,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21484,9 +21410,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21523,9 +21447,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21562,9 +21484,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21601,9 +21521,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21640,9 +21558,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21679,9 +21595,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21718,9 +21632,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21757,9 +21669,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21796,9 +21706,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21835,9 +21743,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21874,9 +21780,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21913,9 +21817,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21952,9 +21854,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21991,9 +21891,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22030,9 +21928,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22069,9 +21965,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22108,9 +22002,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22147,9 +22039,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22186,9 +22076,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22225,9 +22113,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22264,9 +22150,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22303,9 +22187,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22342,9 +22224,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22381,9 +22261,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22420,9 +22298,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22459,9 +22335,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22498,9 +22372,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22537,9 +22409,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22576,9 +22446,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22615,9 +22483,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22654,9 +22520,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22693,9 +22557,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22732,9 +22594,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22771,9 +22631,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22810,9 +22668,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22849,9 +22705,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22888,9 +22742,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22927,9 +22779,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22966,9 +22816,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23005,9 +22853,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23044,9 +22890,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23083,9 +22927,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23122,9 +22964,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23161,9 +23001,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23200,9 +23038,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23239,9 +23075,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23278,9 +23112,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23317,9 +23149,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23356,9 +23186,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23395,9 +23223,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23434,9 +23260,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23473,9 +23297,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23512,9 +23334,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23551,9 +23371,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23590,9 +23408,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23629,9 +23445,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23668,9 +23482,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23707,9 +23519,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23746,9 +23556,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23785,9 +23593,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23824,9 +23630,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23863,9 +23667,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23902,9 +23704,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23941,9 +23741,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23980,9 +23778,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24019,9 +23815,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24058,9 +23852,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24097,9 +23889,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24136,9 +23926,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24175,9 +23963,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24214,9 +24000,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24253,9 +24037,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24292,9 +24074,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24331,9 +24111,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24370,9 +24148,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24409,9 +24185,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24448,9 +24222,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24487,9 +24259,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24526,9 +24296,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24565,9 +24333,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24604,9 +24370,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24643,9 +24407,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24682,9 +24444,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24721,9 +24481,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24760,9 +24518,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24799,9 +24555,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24838,9 +24592,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24877,9 +24629,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24916,9 +24666,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24955,9 +24703,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24994,9 +24740,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25033,9 +24777,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25072,9 +24814,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25111,9 +24851,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25150,9 +24888,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25189,9 +24925,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25228,9 +24962,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25267,9 +24999,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25306,9 +25036,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25345,9 +25073,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25384,9 +25110,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25423,9 +25147,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25462,9 +25184,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25501,9 +25221,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25540,9 +25258,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25579,9 +25295,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25618,9 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25657,9 +25369,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25696,9 +25406,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25735,9 +25443,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25774,9 +25480,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25813,9 +25517,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25852,9 +25554,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25891,9 +25591,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25930,9 +25628,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25969,9 +25665,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26008,9 +25702,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26047,9 +25739,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26086,9 +25776,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26125,9 +25813,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26164,9 +25850,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26203,9 +25887,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26242,9 +25924,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26281,9 +25961,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26320,9 +25998,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26359,9 +26035,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26398,9 +26072,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26437,9 +26109,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26476,9 +26146,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26515,9 +26183,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26554,9 +26220,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26593,9 +26257,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26632,9 +26294,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26671,9 +26331,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26710,9 +26368,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26749,9 +26405,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26788,9 +26442,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26827,9 +26479,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26866,9 +26516,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26905,9 +26553,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26944,9 +26590,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26983,9 +26627,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27022,9 +26664,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27061,9 +26701,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>68200</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
